--- a/cpeck/Таблицы.xlsx
+++ b/cpeck/Таблицы.xlsx
@@ -18,15 +18,149 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="36">
+  <si>
+    <t>Local Search</t>
+  </si>
+  <si>
+    <t>Relocate</t>
+  </si>
+  <si>
+    <t>2-Opt</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>Starting population</t>
+  </si>
+  <si>
+    <t>Evolutionary step</t>
+  </si>
+  <si>
+    <t>15            3</t>
+  </si>
+  <si>
+    <t>150        12</t>
+  </si>
+  <si>
+    <t>obj       car</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>0.55 sec</t>
+  </si>
+  <si>
+    <t>4.7 sec</t>
+  </si>
+  <si>
+    <t>0.046 sec</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>0.1065 sec</t>
+  </si>
+  <si>
+    <t>0.0064 sec</t>
+  </si>
+  <si>
+    <t>50            6</t>
+  </si>
+  <si>
+    <t>10            5</t>
+  </si>
+  <si>
+    <t>Crossover</t>
+  </si>
+  <si>
+    <t>AEX</t>
+  </si>
+  <si>
+    <t>HRndX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HGreX </t>
+  </si>
+  <si>
+    <t>HProX</t>
+  </si>
+  <si>
+    <t>40.91 sec</t>
+  </si>
+  <si>
+    <t>17.38 sec</t>
+  </si>
+  <si>
+    <t>0.097 sec</t>
+  </si>
+  <si>
+    <t>1.827 sec</t>
+  </si>
+  <si>
+    <t>0.002969 sec</t>
+  </si>
+  <si>
+    <t>Genetic Algorithm</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>Gurobi</t>
+  </si>
+  <si>
+    <t>iteration</t>
+  </si>
+  <si>
+    <t>2.88 sec</t>
+  </si>
+  <si>
+    <t>6.64 min</t>
+  </si>
+  <si>
+    <t>1.31 min</t>
+  </si>
+  <si>
+    <t>25.78 min</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,23 +171,614 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="38">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +794,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +834,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +874,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +906,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +1056,413 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D2:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
+      <selection activeCell="AC29" sqref="AC29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="48"/>
+    </row>
+    <row r="4" spans="4:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="17"/>
+      <c r="E4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="4:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="4:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="40"/>
+      <c r="E6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="4:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="40"/>
+      <c r="E7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="4:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="41"/>
+      <c r="E8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="4:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="4:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="42"/>
+      <c r="E10" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="4:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="42"/>
+      <c r="E11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="4:19" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="43"/>
+      <c r="E12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="4:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N15" s="32"/>
+      <c r="O15" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="S15" s="34"/>
+    </row>
+    <row r="16" spans="4:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N16" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="O16" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="14:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N17" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="4">
+        <v>434</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="37">
+        <v>16</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="14:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N18" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" s="4">
+        <v>3255.87</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="37">
+        <v>25</v>
+      </c>
+      <c r="R18" s="12">
+        <v>91</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="14:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N19" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="R19" s="12">
+        <v>247</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="14:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N20" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q20" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="O15:Q15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>